--- a/medicine/Pharmacie/Méthionine/Méthionine.xlsx
+++ b/medicine/Pharmacie/Méthionine/Méthionine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thionine</t>
+          <t>Méthionine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La méthionine (abréviations IUPAC-IUBMB : Met et M) est un acide α-aminé dont l'énantiomère L est l'un des 22 acides aminés protéinogènes, et l'un des 9 acides aminés essentiels pour l'Homme. Elle est encodée sur les ARN messagers par le codon AUG. Elle est caractérisée par la présence d'un atome de soufre engagé dans une fonction thioéther. Son groupe méthyle –CH3 intervient dans de nombreuses réactions de méthylation du métabolisme.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thionine</t>
+          <t>Méthionine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Rôles biologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthionine joue un rôle particulier dans la biosynthèse des protéines, puisque toutes les chaînes protéiques démarrent par l'incorporation d'une méthionine en position N-terminale. D'autres résidus méthionine peuvent ensuite être incorporés de manière interne à la chaîne polypeptidique.
 La première méthionine des protéines n'est pas toujours retrouvée dans les protéines terminées. Elle est en effet fréquemment clivée par une enzyme spécifique appelée méthionine aminopeptidase.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9thionine</t>
+          <t>Méthionine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Dérivés de la méthionine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthionine est le précurseur de la S-adénosylméthionine ou SAM, un métabolite essentiel des réactions de transfert de méthyle dans la cellule. La SAM est une forme activée de la méthionine où le méthyle du thioéther devient un groupement partant utilisé pour méthyler l'ADN, l'ARN ou les protéines.
 Le soufre de la méthionine est sensible à l'oxydation qui donne lieu à deux dérivés : la méthionine sulfone et la méthionine sulfoxyde.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9thionine</t>
+          <t>Méthionine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Formation et rôle de la vitamine B12</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La vitamine B12 agit en tant que coenzyme dans la synthèse de méthionine. En effet, c'est sous la forme de l'enzyme méthyl B12 qu'un groupement méthyl est ajouté à l'homocystéine pour former la méthionine. Le donneur de méthyl se trouve être le méthyl tétrahydrofolate (méthyl THF).
-On remarque donc l'importance de la vitamine B12 à la formation de l'ADN. Voilà pourquoi une déficience en vitamine B12 peut entraîner des désordres importants, comme l'anémie de type mégaloblastique[4].
+On remarque donc l'importance de la vitamine B12 à la formation de l'ADN. Voilà pourquoi une déficience en vitamine B12 peut entraîner des désordres importants, comme l'anémie de type mégaloblastique.
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9thionine</t>
+          <t>Méthionine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Maladies métaboliques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La dégradation de la méthionine est altérée dans les maladies métaboliques suivantes:
 Acidémie méthylmalonique
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M%C3%A9thionine</t>
+          <t>Méthionine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,9 +666,11 @@
           <t>Sources alimentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve d'importantes quantités de méthionine dans[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve d'importantes quantités de méthionine dans :
 les noix du Brésil (1 124 mg/100 g) ;
 les viandes rouges maigres (980 mg/100 g) ;
 Parmesan et gruyère (960 mg/100 g) ;
@@ -659,7 +681,7 @@
 le tofu (211 mg/100 g) ;
 les œufs durs (390 mg/100 g) ;
 le yogourt (170 mg/100 g).
-La méthionine est très utilisée dans l'alimentation animale, et la recherche en biotechnologie tente de trouver des moyens de la produire autrement qu'avec du pétrole[6], avec un soutien financier et stratégique de l'Europe[7] et non sans susciter des craintes en matière d'éthique environnementale[8], en raison des risques[9] liés aux biotechnologies et d'une demande sociale inexistante, voire opposée à l'artificialisation de la production de nourriture[10],[11].
+La méthionine est très utilisée dans l'alimentation animale, et la recherche en biotechnologie tente de trouver des moyens de la produire autrement qu'avec du pétrole, avec un soutien financier et stratégique de l'Europe et non sans susciter des craintes en matière d'éthique environnementale, en raison des risques liés aux biotechnologies et d'une demande sociale inexistante, voire opposée à l'artificialisation de la production de nourriture,.
 </t>
         </is>
       </c>
@@ -670,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M%C3%A9thionine</t>
+          <t>Méthionine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -688,10 +710,12 @@
           <t>Producteurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'un des premiers producteurs (forme liquide : Methionine Hydroxy Analog qui peut agir sur la lactation, et forme poudre) est Adisseo, dont l'histoire commence à Commentry (en France) en 1939  avec une société « Alimentation Équilibrée », productrice d’additifs pour l'alimentation du bétail, créée par un polytechnicien (Marcel Lingot), dont méthionine et vitamine A. L'entreprise a été rachetée en 1971 par Rhône-Poulenc (devenant la « Division Animale » du groupe, qui ajoute à ses 3 usines européennes, dans les années 1980, une usine aux États-Unis. Adisseo devient autonome en 2002, avec un pôle recherche à Commentry (Centre d’Expertise et de Recherche en Nutrition).
-En 2006, le groupe chinois BlueStar (Chimie) achète Adisseo et crée CINAbio (centre de R&amp;D en biotechnologies) à Toulouse. Une nouvelle usine est prévue en Chine. En 2011, Adisseo/BlueStar dispose d'environ 1200 employés dans le monde[12].
+En 2006, le groupe chinois BlueStar (Chimie) achète Adisseo et crée CINAbio (centre de R&amp;D en biotechnologies) à Toulouse. Une nouvelle usine est prévue en Chine. En 2011, Adisseo/BlueStar dispose d'environ 1200 employés dans le monde.
 </t>
         </is>
       </c>
@@ -702,7 +726,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M%C3%A9thionine</t>
+          <t>Méthionine</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -720,10 +744,12 @@
           <t>Production biologique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthionine est le seul acide aminé produit via des processus chimiques à partir d'un dérivé de pétrole.
-La méthionine d'origine biologique (produite par une souche d'Escherichia coli génétiquement modifiée) a été autorisée par la FDA en janvier 2015 pour tous les types d'alimentation animale[13]. L'EFSA l'ayant autorisée quant à elle en 2013[14].
+La méthionine d'origine biologique (produite par une souche d'Escherichia coli génétiquement modifiée) a été autorisée par la FDA en janvier 2015 pour tous les types d'alimentation animale. L'EFSA l'ayant autorisée quant à elle en 2013.
 </t>
         </is>
       </c>
